--- a/Game engines with source.xlsx
+++ b/Game engines with source.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Mingine\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Abstractorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994A0097-8A41-41D7-B9C3-A35B987F5ABF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE94E7B-029B-4B37-8A36-65786BE9150F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D89808C4-C9D4-43AC-AFF6-65FCC2C0AB98}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <sheet name="Sources" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="296">
   <si>
     <t xml:space="preserve">The Freeciv Project </t>
   </si>
@@ -98,9 +99,6 @@
     <t>Bioware Aurora Engine</t>
   </si>
   <si>
-    <t>Caesar III</t>
-  </si>
-  <si>
     <t>AOE2</t>
   </si>
   <si>
@@ -221,9 +219,6 @@
     <t>Acid</t>
   </si>
   <si>
-    <t>https://eqmg.github.io/Acid/</t>
-  </si>
-  <si>
     <t>https://github.com/EQMG/Acid</t>
   </si>
   <si>
@@ -470,9 +465,6 @@
     <t>https://github.com/SaschaWillems/Vulkan</t>
   </si>
   <si>
-    <t>https://github.com/lettier/3d-game-shaders-for-beginners</t>
-  </si>
-  <si>
     <t>https://github.com/liblava/liblava</t>
   </si>
   <si>
@@ -500,15 +492,9 @@
     <t>SDL</t>
   </si>
   <si>
-    <t>Flare Game</t>
-  </si>
-  <si>
     <t>OpenMW</t>
   </si>
   <si>
-    <t>OpenSceneGraph</t>
-  </si>
-  <si>
     <t>Morrowind recreation</t>
   </si>
   <si>
@@ -596,9 +582,6 @@
     <t>Qt3D will use RHI in Qt6?</t>
   </si>
   <si>
-    <t>Ogre-Next</t>
-  </si>
-  <si>
     <t>API compatibility layers</t>
   </si>
   <si>
@@ -611,9 +594,6 @@
     <t>ANGLE provides translation of OpenGL ES to D3D, Vulkan, and soon even Metal</t>
   </si>
   <si>
-    <t>No Vulkan</t>
-  </si>
-  <si>
     <t>Use Qt Quick</t>
   </si>
   <si>
@@ -753,6 +733,198 @@
   </si>
   <si>
     <t>Custom</t>
+  </si>
+  <si>
+    <t>https://github.com/PanosK92/SpartanEngine</t>
+  </si>
+  <si>
+    <t>Spartan Engine</t>
+  </si>
+  <si>
+    <t>Horrible build system and documentation</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenXRay/xray-16</t>
+  </si>
+  <si>
+    <t>OpenXRay</t>
+  </si>
+  <si>
+    <t>OSG</t>
+  </si>
+  <si>
+    <t>https://github.com/godlikepanos/anki-3d-engine</t>
+  </si>
+  <si>
+    <t>AnKi 3D Engine</t>
+  </si>
+  <si>
+    <t>https://github.com/mgerhardy/engine</t>
+  </si>
+  <si>
+    <t>https://github.com/guillaumechereau/goxel</t>
+  </si>
+  <si>
+    <t>Voxel engine</t>
+  </si>
+  <si>
+    <t>Windows only</t>
+  </si>
+  <si>
+    <t>AOE2, polished, popular, designed to be a general RTS engine</t>
+  </si>
+  <si>
+    <t>https://github.com/FlaxEngine/FlaxEngine</t>
+  </si>
+  <si>
+    <t>FlaxEngine</t>
+  </si>
+  <si>
+    <t>10.2K</t>
+  </si>
+  <si>
+    <t>2.3K</t>
+  </si>
+  <si>
+    <t>Python/C++</t>
+  </si>
+  <si>
+    <t>2.5K</t>
+  </si>
+  <si>
+    <t>1.7K</t>
+  </si>
+  <si>
+    <t>https://github.com/OpenDiablo2/OpenDiablo2</t>
+  </si>
+  <si>
+    <t>OpenDiablo2</t>
+  </si>
+  <si>
+    <t>Diablo I engine recreation</t>
+  </si>
+  <si>
+    <t>Diablo II engine recreation</t>
+  </si>
+  <si>
+    <t>Go</t>
+  </si>
+  <si>
+    <t>Flare Engine/Game</t>
+  </si>
+  <si>
+    <t>Diablo engine recreation</t>
+  </si>
+  <si>
+    <t>https://github.com/fogleman/Craft</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>C/Python</t>
+  </si>
+  <si>
+    <t>Minecraft clone</t>
+  </si>
+  <si>
+    <t>https://github.com/MovingBlocks/Terasology</t>
+  </si>
+  <si>
+    <t>Terasology</t>
+  </si>
+  <si>
+    <t>Minecraft clone, good graphics</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>https://github.com/minetest/minetest</t>
+  </si>
+  <si>
+    <t>Minetest</t>
+  </si>
+  <si>
+    <t>C++/C</t>
+  </si>
+  <si>
+    <t>OpenTTD</t>
+  </si>
+  <si>
+    <t>2.9K</t>
+  </si>
+  <si>
+    <t>OpenRCT2</t>
+  </si>
+  <si>
+    <t>https://github.com/pioneerspacesim/pioneer</t>
+  </si>
+  <si>
+    <t>Pioneer Space Sim</t>
+  </si>
+  <si>
+    <t>Pretty nifty space sim</t>
+  </si>
+  <si>
+    <t>0.97K</t>
+  </si>
+  <si>
+    <t>Custom?</t>
+  </si>
+  <si>
+    <t>C/C++</t>
+  </si>
+  <si>
+    <t>https://github.com/Keriew/augustus</t>
+  </si>
+  <si>
+    <t>Caesar III recreation</t>
+  </si>
+  <si>
+    <t>Augustus</t>
+  </si>
+  <si>
+    <t>Caesar III recreation and update</t>
+  </si>
+  <si>
+    <t>10.6K</t>
+  </si>
+  <si>
+    <t>2.6K</t>
+  </si>
+  <si>
+    <t>Irrlicht</t>
+  </si>
+  <si>
+    <t>OGREnext</t>
+  </si>
+  <si>
+    <t>0.4K</t>
+  </si>
+  <si>
+    <t>Goxel</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Voxel engine, SCONS</t>
+  </si>
+  <si>
+    <t>2.2K</t>
+  </si>
+  <si>
+    <t>3.4K</t>
+  </si>
+  <si>
+    <t>Dying?</t>
+  </si>
+  <si>
+    <t>C#/C++</t>
+  </si>
+  <si>
+    <t>Used as basis for Bethesda's Elderscrolls 6 engine</t>
   </si>
 </sst>
 </file>
@@ -789,7 +961,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -838,6 +1010,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -852,7 +1036,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -898,6 +1082,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1213,19 +1405,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84666BE2-700C-4D0F-8E71-7A46C3A604FB}">
-  <dimension ref="A1:L81"/>
+  <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="5" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" style="20" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10" style="20" customWidth="1"/>
+    <col min="5" max="5" width="9" style="20" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="20" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="66" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
@@ -1236,36 +1428,36 @@
   <sheetData>
     <row r="1" spans="1:11" s="17" customFormat="1">
       <c r="A1" s="17" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B1" s="17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H1" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="15" customFormat="1">
       <c r="A2" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D2" s="16"/>
       <c r="E2" s="16"/>
@@ -1274,7 +1466,7 @@
     </row>
     <row r="3" spans="1:11" s="15" customFormat="1">
       <c r="B3" s="15" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="16"/>
@@ -1283,7 +1475,7 @@
     </row>
     <row r="4" spans="1:11" s="15" customFormat="1">
       <c r="B4" s="15" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
@@ -1295,979 +1487,1233 @@
         <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>152</v>
+        <v>269</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="J5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:11">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
       <c r="J6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="B7" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="E7" s="20" t="s">
-        <v>153</v>
+        <v>150</v>
+      </c>
+      <c r="G7" t="s">
+        <v>254</v>
       </c>
       <c r="J7" t="s">
         <v>5</v>
       </c>
       <c r="K7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="B8" t="s">
-        <v>53</v>
+        <v>253</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="G8" t="s">
+        <v>255</v>
       </c>
       <c r="J8" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="B9" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>1</v>
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>258</v>
+      </c>
+      <c r="J9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="B10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>7</v>
+        <v>0</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>9</v>
+        <v>257</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
-      <c r="J13" t="s">
+      <c r="C14" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="J14" t="s">
         <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="B14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C14" t="s">
-        <v>152</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" t="s">
-        <v>157</v>
-      </c>
-      <c r="I14"/>
-      <c r="K14" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="B15" t="s">
-        <v>15</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="C15" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
       <c r="G15" t="s">
-        <v>21</v>
-      </c>
-      <c r="J15" t="s">
-        <v>12</v>
+        <v>152</v>
+      </c>
+      <c r="I15"/>
+      <c r="K15" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="B16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
       </c>
       <c r="J16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>280</v>
+      </c>
+      <c r="J17" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="15"/>
-      <c r="B17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>23</v>
-      </c>
-      <c r="J17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="B18" t="s">
-        <v>52</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F18" s="21" t="s">
+        <v>281</v>
+      </c>
+      <c r="G18" t="s">
+        <v>282</v>
+      </c>
+      <c r="J18" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>260</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="G19" t="s">
+        <v>262</v>
+      </c>
+      <c r="J19" t="s">
+        <v>259</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="B20" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" t="s">
+        <v>265</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G21" t="s">
+        <v>262</v>
+      </c>
+      <c r="J21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="E22" s="20" t="s">
         <v>229</v>
       </c>
-      <c r="G18" t="s">
-        <v>230</v>
-      </c>
-      <c r="H18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J18" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="B19" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="G19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" t="s">
-        <v>39</v>
-      </c>
-      <c r="J19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="B20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C20" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="20" t="s">
+      <c r="F22" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>275</v>
+      </c>
+      <c r="J22" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="B23" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" t="s">
+        <v>271</v>
+      </c>
+      <c r="B24" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="5"/>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F26" s="21" t="s">
+        <v>222</v>
+      </c>
+      <c r="G26" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="2"/>
-      <c r="G20" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" t="s">
-        <v>218</v>
-      </c>
-      <c r="J20" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="B21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C21" t="s">
-        <v>152</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" t="s">
-        <v>214</v>
-      </c>
-      <c r="J21" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="B22" t="s">
-        <v>221</v>
-      </c>
-      <c r="C22" t="s">
-        <v>152</v>
-      </c>
-      <c r="E22" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F22" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G22" t="s">
-        <v>212</v>
-      </c>
-      <c r="H22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I22" t="s">
-        <v>211</v>
-      </c>
-      <c r="J22" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" t="s">
-        <v>225</v>
-      </c>
-      <c r="C23" t="s">
-        <v>152</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="G23" t="s">
-        <v>227</v>
-      </c>
-      <c r="H23" t="s">
-        <v>39</v>
-      </c>
-      <c r="I23"/>
-      <c r="J23" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11">
-      <c r="B24" t="s">
-        <v>208</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>224</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="H24" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" s="15" customFormat="1">
-      <c r="A25" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="I25" s="16"/>
-    </row>
-    <row r="26" spans="1:11">
-      <c r="B26" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" t="s">
-        <v>77</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>59</v>
+      <c r="H26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J26" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:11">
       <c r="B27" s="5" t="s">
-        <v>124</v>
+        <v>18</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>115</v>
-      </c>
-      <c r="J27" s="6" t="s">
-        <v>113</v>
+        <v>19</v>
+      </c>
+      <c r="H27" t="s">
+        <v>38</v>
+      </c>
+      <c r="J27" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:11">
       <c r="B28" t="s">
-        <v>94</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="C28" t="s">
+        <v>149</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" t="s">
-        <v>95</v>
+        <v>212</v>
       </c>
       <c r="H28" t="s">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="I28" t="s">
+        <v>211</v>
       </c>
       <c r="J28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" s="15" customFormat="1">
-      <c r="A29" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="15" t="s">
-        <v>50</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="B29" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" t="s">
+        <v>149</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="H29" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:11">
-      <c r="B30" s="7" t="s">
-        <v>33</v>
+      <c r="B30" t="s">
+        <v>214</v>
+      </c>
+      <c r="C30" t="s">
+        <v>149</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>221</v>
+      </c>
+      <c r="G30" t="s">
+        <v>205</v>
       </c>
       <c r="H30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
+      </c>
+      <c r="I30" t="s">
+        <v>204</v>
       </c>
       <c r="J30" t="s">
-        <v>34</v>
-      </c>
-      <c r="K30" s="3" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:11">
-      <c r="B31" s="7" t="s">
-        <v>140</v>
+      <c r="B31" t="s">
+        <v>218</v>
+      </c>
+      <c r="C31" t="s">
+        <v>149</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>221</v>
       </c>
       <c r="G31" t="s">
-        <v>141</v>
+        <v>220</v>
       </c>
       <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>37</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="I31"/>
       <c r="J31" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32" spans="1:11">
-      <c r="B32" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B32" t="s">
+        <v>201</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
       <c r="H32" t="s">
         <v>38</v>
       </c>
-      <c r="I32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:11" s="15" customFormat="1">
+      <c r="A33" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="I33" s="16"/>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="B34" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" t="s">
+        <v>75</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="B35" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" t="s">
+        <v>82</v>
+      </c>
+      <c r="J36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" s="15" customFormat="1">
+      <c r="A37" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="16"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>292</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H38" t="s">
+        <v>34</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J38" t="s">
+        <v>119</v>
+      </c>
+      <c r="K38" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" t="s">
+        <v>250</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" t="s">
+        <v>139</v>
+      </c>
+      <c r="H39" t="s">
+        <v>34</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K39" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" t="s">
+        <v>287</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H40" t="s">
+        <v>34</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J40" t="s">
+        <v>31</v>
+      </c>
+      <c r="K40" s="3"/>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G41" t="s">
+        <v>295</v>
+      </c>
+      <c r="H41" t="s">
+        <v>82</v>
+      </c>
+      <c r="J41" t="s">
+        <v>89</v>
+      </c>
+      <c r="K41" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" s="5" customFormat="1">
+      <c r="A42" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="I42" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="B43" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+      <c r="I43" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="J43" t="s">
+        <v>120</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
+        <v>284</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H44" t="s">
         <v>37</v>
       </c>
-      <c r="J32" t="s">
-        <v>31</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="B33" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="J33" t="s">
-        <v>122</v>
-      </c>
-      <c r="K33" s="8" t="s">
+      <c r="I44" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J44" t="s">
+        <v>30</v>
+      </c>
+      <c r="K44" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="B45" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="12"/>
+      <c r="G45" t="s">
+        <v>136</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="B46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G47" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H47" t="s">
+        <v>34</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="B48" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J48" t="s">
+        <v>118</v>
+      </c>
+      <c r="K48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" t="s">
+        <v>34</v>
+      </c>
+      <c r="J49" t="s">
+        <v>60</v>
+      </c>
+      <c r="K49" t="s">
+        <v>128</v>
+      </c>
+      <c r="L49" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H50" t="s">
+        <v>121</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+      <c r="K50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="J51" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="J52" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="B53" t="s">
+        <v>239</v>
+      </c>
+      <c r="J53" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="B54" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G54" t="s">
+        <v>242</v>
+      </c>
+      <c r="J54" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="B55" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="G55" t="s">
+        <v>290</v>
+      </c>
+      <c r="J55" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" s="15" customFormat="1">
+      <c r="A56" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="I56" s="16"/>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="B57" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E57" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>283</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>251</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>64</v>
+      </c>
+      <c r="H59" t="s">
+        <v>82</v>
+      </c>
+      <c r="J59" t="s">
+        <v>63</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="B60" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>37</v>
+      </c>
+      <c r="I60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J60" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="B61" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G61" t="s">
+        <v>144</v>
+      </c>
+      <c r="H61" t="s">
+        <v>34</v>
+      </c>
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="B62" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H62" t="s">
+        <v>37</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K62" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="B63" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K63" s="3"/>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="B64" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" t="s">
+        <v>74</v>
+      </c>
+      <c r="G65" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65" t="s">
+        <v>37</v>
+      </c>
+      <c r="J65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" t="s">
+        <v>115</v>
+      </c>
+      <c r="G66" t="s">
+        <v>116</v>
+      </c>
+      <c r="H66" t="s">
+        <v>34</v>
+      </c>
+      <c r="J66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" t="s">
+        <v>134</v>
+      </c>
+      <c r="G67" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" t="s">
+        <v>34</v>
+      </c>
+      <c r="J67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>34</v>
+      </c>
+      <c r="J68" t="s">
+        <v>77</v>
+      </c>
+      <c r="K68" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
+      <c r="B69" t="s">
+        <v>130</v>
+      </c>
+      <c r="G69" t="s">
+        <v>129</v>
+      </c>
+      <c r="H69" t="s">
+        <v>131</v>
+      </c>
+      <c r="J69" t="s">
+        <v>126</v>
+      </c>
+      <c r="K69" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="B34" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="C34" s="12"/>
-      <c r="G34" t="s">
-        <v>138</v>
-      </c>
-      <c r="J34" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="K34" s="11"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="J35" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="K35" s="11"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="B36" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="B37" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J37" t="s">
-        <v>120</v>
-      </c>
-      <c r="K37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="B38" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G38" t="s">
-        <v>63</v>
-      </c>
-      <c r="H38" t="s">
-        <v>35</v>
-      </c>
-      <c r="J38" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" t="s">
-        <v>130</v>
-      </c>
-      <c r="L38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="B39" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="H39" t="s">
-        <v>123</v>
-      </c>
-      <c r="J39" t="s">
-        <v>28</v>
-      </c>
-      <c r="K39" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="15" customFormat="1">
-      <c r="A40" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="16"/>
-      <c r="E40" s="16"/>
-      <c r="F40" s="16"/>
-      <c r="I40" s="16"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="B41" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="B42" s="14" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="B43" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="H43" t="s">
-        <v>84</v>
-      </c>
-      <c r="J43" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="B44" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G44" t="s">
-        <v>66</v>
-      </c>
-      <c r="H44" t="s">
-        <v>84</v>
-      </c>
-      <c r="J44" t="s">
-        <v>65</v>
-      </c>
-      <c r="K44" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="B45" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="H45" t="s">
-        <v>35</v>
-      </c>
-      <c r="J45" t="s">
-        <v>121</v>
-      </c>
-      <c r="K45" s="14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="B46" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H46" t="s">
-        <v>38</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" t="s">
-        <v>44</v>
-      </c>
-      <c r="K46" s="3" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12">
-      <c r="B47" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="H47" t="s">
-        <v>35</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J47" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="8" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12">
-      <c r="B48" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="G48" t="s">
-        <v>147</v>
-      </c>
-      <c r="H48" t="s">
-        <v>35</v>
-      </c>
-      <c r="J48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="B49" s="5" t="s">
+    <row r="70" spans="1:11">
+      <c r="J70" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
+      <c r="B71" t="s">
+        <v>167</v>
+      </c>
+      <c r="G71" t="s">
         <v>165</v>
       </c>
-      <c r="H49" t="s">
-        <v>38</v>
-      </c>
-      <c r="J49" s="1" t="s">
+      <c r="J71" t="s">
         <v>166</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="B50" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="1:11">
-      <c r="B51" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="1:11">
-      <c r="B52" t="s">
-        <v>76</v>
-      </c>
-      <c r="G52" t="s">
-        <v>75</v>
-      </c>
-      <c r="H52" t="s">
-        <v>38</v>
-      </c>
-      <c r="J52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11">
-      <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="G53" t="s">
-        <v>118</v>
-      </c>
-      <c r="H53" t="s">
-        <v>35</v>
-      </c>
-      <c r="J53" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="B54" t="s">
-        <v>136</v>
-      </c>
-      <c r="G54" t="s">
-        <v>134</v>
-      </c>
-      <c r="H54" t="s">
-        <v>35</v>
-      </c>
-      <c r="J54" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11">
-      <c r="B55" t="s">
-        <v>81</v>
-      </c>
-      <c r="G55" t="s">
-        <v>80</v>
-      </c>
-      <c r="H55" t="s">
-        <v>35</v>
-      </c>
-      <c r="J55" t="s">
-        <v>79</v>
-      </c>
-      <c r="K55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11">
-      <c r="B56" t="s">
-        <v>132</v>
-      </c>
-      <c r="G56" t="s">
-        <v>131</v>
-      </c>
-      <c r="H56" t="s">
-        <v>133</v>
-      </c>
-      <c r="J56" t="s">
-        <v>128</v>
-      </c>
-      <c r="K56" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11">
-      <c r="J57" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11">
-      <c r="B58" t="s">
-        <v>172</v>
-      </c>
-      <c r="G58" t="s">
-        <v>170</v>
-      </c>
-      <c r="J58" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" s="15" customFormat="1">
-      <c r="A59" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="D59" s="16"/>
-      <c r="E59" s="16"/>
-      <c r="F59" s="16"/>
-      <c r="I59" s="16"/>
-    </row>
-    <row r="60" spans="1:11">
-      <c r="B60" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11">
-      <c r="B61" t="s">
-        <v>168</v>
-      </c>
-      <c r="G61" t="s">
-        <v>190</v>
-      </c>
-      <c r="K61" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11">
-      <c r="B62" t="s">
-        <v>126</v>
-      </c>
-      <c r="J62" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" s="15" customFormat="1">
-      <c r="A63" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="D63" s="16"/>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="I63" s="16"/>
-    </row>
-    <row r="64" spans="1:11">
-      <c r="B64" t="s">
-        <v>90</v>
-      </c>
-      <c r="G64" t="s">
-        <v>83</v>
-      </c>
-      <c r="H64" t="s">
-        <v>84</v>
-      </c>
-      <c r="J64" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10">
-      <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="G65" t="s">
-        <v>87</v>
-      </c>
-      <c r="H65" t="s">
-        <v>89</v>
-      </c>
-      <c r="J65" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10">
-      <c r="B66" t="s">
-        <v>88</v>
-      </c>
-      <c r="G66" t="s">
-        <v>87</v>
-      </c>
-      <c r="H66" t="s">
-        <v>35</v>
-      </c>
-      <c r="J66" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" s="15" customFormat="1">
-      <c r="A67" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="D67" s="16"/>
-      <c r="E67" s="16"/>
-      <c r="F67" s="16"/>
-      <c r="I67" s="16"/>
-    </row>
-    <row r="68" spans="1:10">
-      <c r="B68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J68" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10">
-      <c r="B69" t="s">
-        <v>42</v>
-      </c>
-      <c r="J69" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="B70" t="s">
-        <v>72</v>
-      </c>
-      <c r="J70" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10">
-      <c r="B71" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="15" customFormat="1">
+    </row>
+    <row r="72" spans="1:11" s="15" customFormat="1">
       <c r="A72" s="15" t="s">
-        <v>97</v>
+        <v>181</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="16"/>
       <c r="F72" s="16"/>
       <c r="I72" s="16"/>
     </row>
-    <row r="73" spans="1:10">
+    <row r="73" spans="1:11">
       <c r="B73" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
+      <c r="B74" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" t="s">
+        <v>184</v>
+      </c>
+      <c r="K74" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
+      <c r="B75" t="s">
+        <v>124</v>
+      </c>
+      <c r="J75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" s="15" customFormat="1">
+      <c r="A76" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="16"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="16"/>
+      <c r="I76" s="16"/>
+    </row>
+    <row r="77" spans="1:11">
+      <c r="B77" t="s">
+        <v>88</v>
+      </c>
+      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="H77" t="s">
+        <v>82</v>
+      </c>
+      <c r="J77" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
+      <c r="B78" t="s">
+        <v>84</v>
+      </c>
+      <c r="G78" t="s">
+        <v>85</v>
+      </c>
+      <c r="H78" t="s">
+        <v>87</v>
+      </c>
+      <c r="J78" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
+      <c r="B79" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" t="s">
+        <v>85</v>
+      </c>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="J79" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" s="15" customFormat="1">
+      <c r="A80" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" s="16"/>
+      <c r="E80" s="16"/>
+      <c r="F80" s="16"/>
+      <c r="I80" s="16"/>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="B81" t="s">
+        <v>69</v>
+      </c>
+      <c r="J81" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="B82" t="s">
+        <v>41</v>
+      </c>
+      <c r="J82" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="J83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="B84" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" s="15" customFormat="1">
+      <c r="A85" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="16"/>
+      <c r="E85" s="16"/>
+      <c r="F85" s="16"/>
+      <c r="I85" s="16"/>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="B86" t="s">
+        <v>94</v>
+      </c>
+      <c r="G86" t="s">
+        <v>55</v>
+      </c>
+      <c r="J86" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="B87" t="s">
+        <v>98</v>
+      </c>
+      <c r="G87" t="s">
+        <v>97</v>
+      </c>
+      <c r="J87" t="s">
         <v>96</v>
       </c>
-      <c r="G73" t="s">
-        <v>56</v>
-      </c>
-      <c r="J73" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10">
-      <c r="B74" t="s">
+    </row>
+    <row r="88" spans="1:10">
+      <c r="B88" t="s">
+        <v>101</v>
+      </c>
+      <c r="G88" t="s">
         <v>100</v>
       </c>
-      <c r="G74" t="s">
+      <c r="J88" t="s">
         <v>99</v>
       </c>
-      <c r="J74" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10">
-      <c r="B75" t="s">
+    </row>
+    <row r="89" spans="1:10">
+      <c r="B89" t="s">
+        <v>104</v>
+      </c>
+      <c r="G89" t="s">
         <v>103</v>
       </c>
-      <c r="G75" t="s">
+      <c r="J89" t="s">
         <v>102</v>
       </c>
-      <c r="J75" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10">
-      <c r="B76" t="s">
+    </row>
+    <row r="90" spans="1:10">
+      <c r="B90" t="s">
         <v>106</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G90" t="s">
+        <v>110</v>
+      </c>
+      <c r="J90" t="s">
         <v>105</v>
       </c>
-      <c r="J76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10">
-      <c r="B77" t="s">
+    </row>
+    <row r="91" spans="1:10">
+      <c r="B91" t="s">
         <v>108</v>
       </c>
-      <c r="G77" t="s">
-        <v>112</v>
-      </c>
-      <c r="J77" t="s">
+      <c r="G91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J91" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:10">
-      <c r="B78" t="s">
-        <v>110</v>
-      </c>
-      <c r="G78" t="s">
-        <v>111</v>
-      </c>
-      <c r="J78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10">
-      <c r="A79" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10">
-      <c r="J80" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="81" spans="10:10">
-      <c r="J81" t="s">
-        <v>162</v>
+    <row r="92" spans="1:10" s="24" customFormat="1">
+      <c r="A92" s="24" t="s">
+        <v>192</v>
+      </c>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="I92" s="25"/>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="J93" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="J94" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J9" r:id="rId1" xr:uid="{E14B3450-24AC-4CFD-8025-A3383681EF6E}"/>
-    <hyperlink ref="J12" r:id="rId2" xr:uid="{E04BDA5B-F93E-430F-91E8-9DFA7F84D927}"/>
-    <hyperlink ref="J27" r:id="rId3" xr:uid="{F64AADB2-C73B-49A3-9212-3983BBEF9380}"/>
-    <hyperlink ref="J80" r:id="rId4" xr:uid="{A2FD99F1-6002-4AF5-B586-6D2A968B5797}"/>
-    <hyperlink ref="J49" r:id="rId5" xr:uid="{0A94D00C-75FB-49FF-8ECE-3641A5A57E0E}"/>
+    <hyperlink ref="J11" r:id="rId1" xr:uid="{E14B3450-24AC-4CFD-8025-A3383681EF6E}"/>
+    <hyperlink ref="J13" r:id="rId2" xr:uid="{E04BDA5B-F93E-430F-91E8-9DFA7F84D927}"/>
+    <hyperlink ref="J35" r:id="rId3" xr:uid="{F64AADB2-C73B-49A3-9212-3983BBEF9380}"/>
+    <hyperlink ref="J93" r:id="rId4" xr:uid="{A2FD99F1-6002-4AF5-B586-6D2A968B5797}"/>
+    <hyperlink ref="J62" r:id="rId5" xr:uid="{0A94D00C-75FB-49FF-8ECE-3641A5A57E0E}"/>
+    <hyperlink ref="J20" r:id="rId6" xr:uid="{E56CD8F7-0A95-4862-924E-AD4163C0BE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId6"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -2286,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2311,99 +2757,99 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C6" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="C7" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C8" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="C10" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C12" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="C13" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -2423,17 +2869,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/Game engines with source.xlsx
+++ b/Game engines with source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Abstractorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE94E7B-029B-4B37-8A36-65786BE9150F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131161D-710F-48BC-9183-CE10AB058755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D89808C4-C9D4-43AC-AFF6-65FCC2C0AB98}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="Sources" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="297">
   <si>
     <t xml:space="preserve">The Freeciv Project </t>
   </si>
@@ -925,6 +924,9 @@
   </si>
   <si>
     <t>Used as basis for Bethesda's Elderscrolls 6 engine</t>
+  </si>
+  <si>
+    <t>C++/Python</t>
   </si>
 </sst>
 </file>
@@ -1407,15 +1409,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84666BE2-700C-4D0F-8E71-7A46C3A604FB}">
   <dimension ref="A1:L94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="10.5546875" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="20" customWidth="1"/>
     <col min="5" max="5" width="9" style="20" customWidth="1"/>
     <col min="6" max="6" width="11.21875" style="20" bestFit="1" customWidth="1"/>
@@ -2126,6 +2128,9 @@
       </c>
       <c r="B44" s="3" t="s">
         <v>28</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="H44" t="s">
         <v>37</v>

--- a/Game engines with source.xlsx
+++ b/Game engines with source.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Programming\Abstractorizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9131161D-710F-48BC-9183-CE10AB058755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D54060-BC02-433C-9A9C-2BA980346AB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D89808C4-C9D4-43AC-AFF6-65FCC2C0AB98}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="303">
   <si>
     <t xml:space="preserve">The Freeciv Project </t>
   </si>
@@ -927,6 +927,24 @@
   </si>
   <si>
     <t>C++/Python</t>
+  </si>
+  <si>
+    <t>https://github.com/Angelo1211/HybridRenderingEngine</t>
+  </si>
+  <si>
+    <t>Hybrid Rendering Engine</t>
+  </si>
+  <si>
+    <t>https://github.com/xelatihy/yocto-gl</t>
+  </si>
+  <si>
+    <t>Yocto-gl</t>
+  </si>
+  <si>
+    <t>https://github.com/Nadrin/PBR</t>
+  </si>
+  <si>
+    <t>PBR</t>
   </si>
 </sst>
 </file>
@@ -1407,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84666BE2-700C-4D0F-8E71-7A46C3A604FB}">
-  <dimension ref="A1:L94"/>
+  <dimension ref="A1:L98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2039,495 +2057,495 @@
       </c>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" t="s">
-        <v>287</v>
-      </c>
       <c r="B40" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="H40" t="s">
-        <v>34</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" t="s">
-        <v>31</v>
+        <v>216</v>
       </c>
       <c r="K40" s="3"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
-        <v>291</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>90</v>
+        <v>287</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>286</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
+        <v>34</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J41" t="s">
+        <v>31</v>
+      </c>
+      <c r="K41" s="3"/>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
+        <v>291</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" t="s">
         <v>295</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H42" t="s">
         <v>82</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J42" t="s">
         <v>89</v>
       </c>
-      <c r="K41" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="42" spans="1:11" s="5" customFormat="1">
-      <c r="A42" s="5" t="s">
+    <row r="43" spans="1:11" s="5" customFormat="1">
+      <c r="A43" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B43" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C43" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="I42" s="20" t="s">
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="I43" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="J42" s="5" t="s">
+      <c r="J43" s="5" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="B43" s="3" t="s">
+    <row r="44" spans="1:11">
+      <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C44" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H44" t="s">
         <v>34</v>
       </c>
-      <c r="I43" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J44" t="s">
         <v>120</v>
       </c>
-      <c r="K43" s="8" t="s">
+      <c r="K44" s="8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
         <v>284</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B45" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C45" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H45" t="s">
         <v>37</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J45" t="s">
         <v>30</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K45" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
-      <c r="B45" s="12" t="s">
+    <row r="46" spans="1:11">
+      <c r="B46" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="12"/>
-      <c r="G45" t="s">
+      <c r="C46" s="12"/>
+      <c r="G46" t="s">
         <v>136</v>
       </c>
-      <c r="J45" s="10" t="s">
+      <c r="J46" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="K45" s="11"/>
-    </row>
-    <row r="46" spans="1:11">
-      <c r="B46" t="s">
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="B47" t="s">
         <v>48</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C47" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D47" s="20" t="s">
         <v>155</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H47" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J47" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11">
-      <c r="B47" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G47" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="H47" t="s">
-        <v>34</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J47" t="s">
-        <v>33</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="48" spans="1:11">
       <c r="B48" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G48" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="H48" t="s">
+        <v>34</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="B49" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J49" t="s">
         <v>118</v>
-      </c>
-      <c r="K48" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12">
-      <c r="B49" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G49" t="s">
-        <v>61</v>
-      </c>
-      <c r="H49" t="s">
-        <v>34</v>
-      </c>
-      <c r="J49" t="s">
-        <v>60</v>
       </c>
       <c r="K49" t="s">
         <v>128</v>
       </c>
-      <c r="L49" t="s">
+    </row>
+    <row r="50" spans="1:12">
+      <c r="B50" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>61</v>
+      </c>
+      <c r="H50" t="s">
+        <v>34</v>
+      </c>
+      <c r="J50" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
-      <c r="B50" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H50" t="s">
-        <v>121</v>
-      </c>
-      <c r="J50" t="s">
-        <v>27</v>
-      </c>
       <c r="K50" t="s">
-        <v>26</v>
+        <v>128</v>
+      </c>
+      <c r="L50" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:12">
       <c r="B51" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H51" t="s">
+        <v>121</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+      <c r="K51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="B52" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G52" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J52" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
-      <c r="B52" s="5" t="s">
+    <row r="53" spans="1:12">
+      <c r="B53" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J53" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
-      <c r="B53" t="s">
+    <row r="54" spans="1:12">
+      <c r="B54" t="s">
         <v>239</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J54" t="s">
         <v>238</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12">
-      <c r="B54" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="G54" t="s">
-        <v>242</v>
-      </c>
-      <c r="J54" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:12">
       <c r="B55" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="G55" t="s">
+        <v>242</v>
+      </c>
+      <c r="J55" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="B56" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C55" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G56" t="s">
         <v>290</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J56" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="56" spans="1:12" s="15" customFormat="1">
-      <c r="A56" s="15" t="s">
+    <row r="57" spans="1:12" s="15" customFormat="1">
+      <c r="A57" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="D56" s="16"/>
-      <c r="E56" s="16"/>
-      <c r="F56" s="16"/>
-      <c r="I56" s="16"/>
-    </row>
-    <row r="57" spans="1:12">
-      <c r="B57" s="5" t="s">
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="I57" s="16"/>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="B58" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="E57" s="23" t="s">
+      <c r="E58" s="23" t="s">
         <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12">
-      <c r="A58" t="s">
-        <v>283</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
+        <v>283</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60" t="s">
         <v>251</v>
       </c>
-      <c r="B59" s="7" t="s">
+      <c r="B60" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G60" t="s">
         <v>64</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H60" t="s">
         <v>82</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J60" t="s">
         <v>63</v>
       </c>
-      <c r="K59" s="3" t="s">
+      <c r="K60" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
-      <c r="B60" s="19" t="s">
+    <row r="61" spans="1:12">
+      <c r="B61" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H61" t="s">
         <v>37</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J61" t="s">
         <v>43</v>
       </c>
-      <c r="K60" s="3" t="s">
+      <c r="K61" s="3" t="s">
         <v>194</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12">
-      <c r="B61" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="G61" t="s">
-        <v>144</v>
-      </c>
-      <c r="H61" t="s">
-        <v>34</v>
-      </c>
-      <c r="J61" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="62" spans="1:12">
       <c r="B62" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="H62" t="s">
-        <v>37</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>162</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="J62" t="s">
+        <v>299</v>
+      </c>
+      <c r="K62" s="3"/>
     </row>
     <row r="63" spans="1:12">
       <c r="B63" s="5" t="s">
-        <v>150</v>
+        <v>302</v>
+      </c>
+      <c r="J63" t="s">
+        <v>301</v>
       </c>
       <c r="K63" s="3"/>
     </row>
     <row r="64" spans="1:12">
       <c r="B64" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="J64" t="s">
+        <v>297</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:11">
+      <c r="B65" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G65" t="s">
+        <v>144</v>
+      </c>
+      <c r="H65" t="s">
+        <v>34</v>
+      </c>
+      <c r="J65" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
+      <c r="B66" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="H66" t="s">
+        <v>37</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
+      <c r="B67" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="K67" s="3"/>
+    </row>
+    <row r="68" spans="1:11">
+      <c r="B68" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="1:11">
-      <c r="B65" t="s">
-        <v>74</v>
-      </c>
-      <c r="G65" t="s">
-        <v>73</v>
-      </c>
-      <c r="H65" t="s">
-        <v>37</v>
-      </c>
-      <c r="J65" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11">
-      <c r="B66" t="s">
-        <v>115</v>
-      </c>
-      <c r="G66" t="s">
-        <v>116</v>
-      </c>
-      <c r="H66" t="s">
-        <v>34</v>
-      </c>
-      <c r="J66" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11">
-      <c r="B67" t="s">
-        <v>134</v>
-      </c>
-      <c r="G67" t="s">
-        <v>132</v>
-      </c>
-      <c r="H67" t="s">
-        <v>34</v>
-      </c>
-      <c r="J67" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11">
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="G68" t="s">
-        <v>78</v>
-      </c>
-      <c r="H68" t="s">
-        <v>34</v>
-      </c>
-      <c r="J68" t="s">
-        <v>77</v>
-      </c>
-      <c r="K68" t="s">
-        <v>26</v>
-      </c>
+      <c r="K68" s="3"/>
     </row>
     <row r="69" spans="1:11">
       <c r="B69" t="s">
-        <v>130</v>
+        <v>74</v>
       </c>
       <c r="G69" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>131</v>
+        <v>37</v>
       </c>
       <c r="J69" t="s">
-        <v>126</v>
-      </c>
-      <c r="K69" t="s">
-        <v>127</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:11">
+      <c r="B70" t="s">
+        <v>115</v>
+      </c>
+      <c r="G70" t="s">
+        <v>116</v>
+      </c>
+      <c r="H70" t="s">
+        <v>34</v>
+      </c>
       <c r="J70" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
     </row>
     <row r="71" spans="1:11">
       <c r="B71" t="s">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="G71" t="s">
-        <v>165</v>
+        <v>132</v>
+      </c>
+      <c r="H71" t="s">
+        <v>34</v>
       </c>
       <c r="J71" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" s="15" customFormat="1">
-      <c r="A72" s="15" t="s">
-        <v>181</v>
-      </c>
-      <c r="D72" s="16"/>
-      <c r="E72" s="16"/>
-      <c r="F72" s="16"/>
-      <c r="I72" s="16"/>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G72" t="s">
+        <v>78</v>
+      </c>
+      <c r="H72" t="s">
+        <v>34</v>
+      </c>
+      <c r="J72" t="s">
+        <v>77</v>
+      </c>
+      <c r="K72" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="73" spans="1:11">
       <c r="B73" t="s">
-        <v>182</v>
+        <v>130</v>
+      </c>
+      <c r="G73" t="s">
+        <v>129</v>
+      </c>
+      <c r="H73" t="s">
+        <v>131</v>
+      </c>
+      <c r="J73" t="s">
+        <v>126</v>
+      </c>
+      <c r="K73" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="74" spans="1:11">
-      <c r="B74" t="s">
-        <v>163</v>
-      </c>
-      <c r="G74" t="s">
-        <v>184</v>
-      </c>
-      <c r="K74" t="s">
-        <v>164</v>
+      <c r="J74" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:11">
       <c r="B75" t="s">
-        <v>124</v>
+        <v>167</v>
+      </c>
+      <c r="G75" t="s">
+        <v>165</v>
       </c>
       <c r="J75" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:11" s="15" customFormat="1">
       <c r="A76" s="15" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="D76" s="16"/>
       <c r="E76" s="16"/>
@@ -2536,49 +2554,31 @@
     </row>
     <row r="77" spans="1:11">
       <c r="B77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>81</v>
-      </c>
-      <c r="H77" t="s">
-        <v>82</v>
-      </c>
-      <c r="J77" t="s">
-        <v>80</v>
+        <v>182</v>
       </c>
     </row>
     <row r="78" spans="1:11">
       <c r="B78" t="s">
-        <v>84</v>
+        <v>163</v>
       </c>
       <c r="G78" t="s">
-        <v>85</v>
-      </c>
-      <c r="H78" t="s">
-        <v>87</v>
-      </c>
-      <c r="J78" t="s">
-        <v>83</v>
+        <v>184</v>
+      </c>
+      <c r="K78" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="79" spans="1:11">
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="G79" t="s">
-        <v>85</v>
-      </c>
-      <c r="H79" t="s">
-        <v>34</v>
+        <v>124</v>
       </c>
       <c r="J79" t="s">
-        <v>86</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:11" s="15" customFormat="1">
       <c r="A80" s="15" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="D80" s="16"/>
       <c r="E80" s="16"/>
@@ -2587,124 +2587,175 @@
     </row>
     <row r="81" spans="1:10">
       <c r="B81" t="s">
-        <v>69</v>
+        <v>88</v>
+      </c>
+      <c r="G81" t="s">
+        <v>81</v>
+      </c>
+      <c r="H81" t="s">
+        <v>82</v>
       </c>
       <c r="J81" t="s">
-        <v>39</v>
+        <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="B82" t="s">
-        <v>41</v>
+        <v>84</v>
+      </c>
+      <c r="G82" t="s">
+        <v>85</v>
+      </c>
+      <c r="H82" t="s">
+        <v>87</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="B83" t="s">
-        <v>70</v>
+        <v>86</v>
+      </c>
+      <c r="G83" t="s">
+        <v>85</v>
+      </c>
+      <c r="H83" t="s">
+        <v>34</v>
       </c>
       <c r="J83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10">
-      <c r="B84" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" s="15" customFormat="1">
-      <c r="A85" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="16"/>
-      <c r="E85" s="16"/>
-      <c r="F85" s="16"/>
-      <c r="I85" s="16"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" s="15" customFormat="1">
+      <c r="A84" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" s="16"/>
+      <c r="E84" s="16"/>
+      <c r="F84" s="16"/>
+      <c r="I84" s="16"/>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="B85" t="s">
+        <v>69</v>
+      </c>
+      <c r="J85" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="B86" t="s">
-        <v>94</v>
-      </c>
-      <c r="G86" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="J86" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="B87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="J87" t="s">
-        <v>96</v>
+        <v>29</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="B88" t="s">
-        <v>101</v>
-      </c>
-      <c r="G88" t="s">
-        <v>100</v>
-      </c>
-      <c r="J88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:10">
-      <c r="B89" t="s">
-        <v>104</v>
-      </c>
-      <c r="G89" t="s">
-        <v>103</v>
-      </c>
-      <c r="J89" t="s">
-        <v>102</v>
-      </c>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" s="15" customFormat="1">
+      <c r="A89" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D89" s="16"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="I89" s="16"/>
     </row>
     <row r="90" spans="1:10">
       <c r="B90" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="G90" t="s">
-        <v>110</v>
+        <v>55</v>
       </c>
       <c r="J90" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="B91" t="s">
+        <v>98</v>
+      </c>
+      <c r="G91" t="s">
+        <v>97</v>
+      </c>
+      <c r="J91" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="B92" t="s">
+        <v>101</v>
+      </c>
+      <c r="G92" t="s">
+        <v>100</v>
+      </c>
+      <c r="J92" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="B93" t="s">
+        <v>104</v>
+      </c>
+      <c r="G93" t="s">
+        <v>103</v>
+      </c>
+      <c r="J93" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="B94" t="s">
+        <v>106</v>
+      </c>
+      <c r="G94" t="s">
+        <v>110</v>
+      </c>
+      <c r="J94" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="B95" t="s">
         <v>108</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G95" t="s">
         <v>109</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J95" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="92" spans="1:10" s="24" customFormat="1">
-      <c r="A92" s="24" t="s">
+    <row r="96" spans="1:10" s="24" customFormat="1">
+      <c r="A96" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="D92" s="25"/>
-      <c r="E92" s="25"/>
-      <c r="F92" s="25"/>
-      <c r="I92" s="25"/>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="J93" s="1" t="s">
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="I96" s="25"/>
+    </row>
+    <row r="97" spans="10:10">
+      <c r="J97" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:10">
-      <c r="J94" t="s">
+    <row r="98" spans="10:10">
+      <c r="J98" t="s">
         <v>157</v>
       </c>
     </row>
@@ -2713,8 +2764,8 @@
     <hyperlink ref="J11" r:id="rId1" xr:uid="{E14B3450-24AC-4CFD-8025-A3383681EF6E}"/>
     <hyperlink ref="J13" r:id="rId2" xr:uid="{E04BDA5B-F93E-430F-91E8-9DFA7F84D927}"/>
     <hyperlink ref="J35" r:id="rId3" xr:uid="{F64AADB2-C73B-49A3-9212-3983BBEF9380}"/>
-    <hyperlink ref="J93" r:id="rId4" xr:uid="{A2FD99F1-6002-4AF5-B586-6D2A968B5797}"/>
-    <hyperlink ref="J62" r:id="rId5" xr:uid="{0A94D00C-75FB-49FF-8ECE-3641A5A57E0E}"/>
+    <hyperlink ref="J97" r:id="rId4" xr:uid="{A2FD99F1-6002-4AF5-B586-6D2A968B5797}"/>
+    <hyperlink ref="J66" r:id="rId5" xr:uid="{0A94D00C-75FB-49FF-8ECE-3641A5A57E0E}"/>
     <hyperlink ref="J20" r:id="rId6" xr:uid="{E56CD8F7-0A95-4862-924E-AD4163C0BE86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
